--- a/xlsx/Scholarpedia_intext.xlsx
+++ b/xlsx/Scholarpedia_intext.xlsx
@@ -29,19 +29,19 @@
     <t>网络百科全书</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Scholarpedia</t>
+    <t>政策_政策_维基百科_Scholarpedia</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
+    <t>创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>標語</t>
+    <t>标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥 (加利福尼亞州)</t>
+    <t>圣地牙哥 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
